--- a/natmiOut/OldD0/LR-pairs_lrc2p/Rtn4-Tnfrsf19.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Rtn4-Tnfrsf19.xlsx
@@ -528,34 +528,34 @@
         <v>22</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>57.1504655125689</v>
+        <v>63.211268</v>
       </c>
       <c r="H2">
-        <v>57.1504655125689</v>
+        <v>189.633804</v>
       </c>
       <c r="I2">
-        <v>0.4686263458169703</v>
+        <v>0.4922609885657722</v>
       </c>
       <c r="J2">
-        <v>0.4686263458169703</v>
+        <v>0.4922609885657722</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.749418567641817</v>
+        <v>0.7527293333333334</v>
       </c>
       <c r="N2">
-        <v>0.749418567641817</v>
+        <v>2.258188</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -564,16 +564,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>42.82962000449245</v>
+        <v>47.58097562079467</v>
       </c>
       <c r="R2">
-        <v>42.82962000449245</v>
+        <v>428.228780587152</v>
       </c>
       <c r="S2">
-        <v>0.4686263458169703</v>
+        <v>0.4922609885657722</v>
       </c>
       <c r="T2">
-        <v>0.4686263458169703</v>
+        <v>0.4922609885657722</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,34 +590,34 @@
         <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>43.0001042650496</v>
+        <v>43.30706799999999</v>
       </c>
       <c r="H3">
-        <v>43.0001042650496</v>
+        <v>129.921204</v>
       </c>
       <c r="I3">
-        <v>0.3525952334902185</v>
+        <v>0.3372560111523963</v>
       </c>
       <c r="J3">
-        <v>0.3525952334902185</v>
+        <v>0.3372560111523963</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.749418567641817</v>
+        <v>0.7527293333333334</v>
       </c>
       <c r="N3">
-        <v>0.749418567641817</v>
+        <v>2.258188</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -626,16 +626,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>32.22507654676226</v>
+        <v>32.59850042426133</v>
       </c>
       <c r="R3">
-        <v>32.22507654676226</v>
+        <v>293.386503818352</v>
       </c>
       <c r="S3">
-        <v>0.3525952334902185</v>
+        <v>0.3372560111523963</v>
       </c>
       <c r="T3">
-        <v>0.3525952334902185</v>
+        <v>0.3372560111523963</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,34 +652,34 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>21.8025940227154</v>
+        <v>21.891734</v>
       </c>
       <c r="H4">
-        <v>21.8025940227154</v>
+        <v>65.675202</v>
       </c>
       <c r="I4">
-        <v>0.1787784206928111</v>
+        <v>0.1704830002818315</v>
       </c>
       <c r="J4">
-        <v>0.1787784206928111</v>
+        <v>0.1704830002818315</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.749418567641817</v>
+        <v>0.7527293333333334</v>
       </c>
       <c r="N4">
-        <v>0.749418567641817</v>
+        <v>2.258188</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -688,16 +688,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>16.33926878337942</v>
+        <v>16.47855033933067</v>
       </c>
       <c r="R4">
-        <v>16.33926878337942</v>
+        <v>148.306953053976</v>
       </c>
       <c r="S4">
-        <v>0.1787784206928111</v>
+        <v>0.1704830002818315</v>
       </c>
       <c r="T4">
-        <v>0.1787784206928111</v>
+        <v>0.1704830002818315</v>
       </c>
     </row>
   </sheetData>
